--- a/data/scheduling_DNN/predict/0.9/result14.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result14.xlsx
@@ -570,10 +570,10 @@
         <v>1.345715045928955</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5233672857284546</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5639893412590027</v>
+        <v>0.6762558221817017</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.987407922744751</v>
       </c>
       <c r="V3" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4021120965480804</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1109368056058884</v>
+        <v>0.3425711691379547</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8763220310211182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5225064158439636</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002178251976147294</v>
+        <v>0.125185489654541</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8639001846313477</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.503278911113739</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1140265241265297</v>
+        <v>0.1300477087497711</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8687620162963867</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5206696391105652</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03094757720828056</v>
+        <v>0.1211683005094528</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9155158996582031</v>
       </c>
       <c r="V7" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8782660961151123</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06762631237506866</v>
+        <v>0.001387547818012536</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8634848594665527</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.4003513157367706</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1390060186386108</v>
+        <v>0.2144926786422729</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8695731163024902</v>
       </c>
       <c r="V9" t="n">
-        <v>0.405481219291687</v>
+        <v>0.4003280103206635</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2153812944889069</v>
+        <v>0.2201909720897675</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8628039360046387</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8625255227088928</v>
       </c>
       <c r="W10" t="n">
-        <v>0.000455869419965893</v>
+        <v>7.751395969535224e-08</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9171528816223145</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5160421133041382</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2079756259918213</v>
+        <v>0.1608898490667343</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8765158653259277</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5230220556259155</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1705899089574814</v>
+        <v>0.124957874417305</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.868718147277832</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8729335069656372</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2682592868804932</v>
+        <v>1.77692581928568e-05</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8583629131317139</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.4003650844097137</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1556662917137146</v>
+        <v>0.2097620069980621</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9310882091522217</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4022015333175659</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1214429512619972</v>
+        <v>0.2797211110591888</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8773579597473145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5236009955406189</v>
       </c>
       <c r="W16" t="n">
-        <v>0.138029083609581</v>
+        <v>0.1251439899206161</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8647699356079102</v>
       </c>
       <c r="V17" t="n">
-        <v>0.524641752243042</v>
+        <v>0.4009265303611755</v>
       </c>
       <c r="W17" t="n">
-        <v>0.115687184035778</v>
+        <v>0.2151506990194321</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8744280338287354</v>
       </c>
       <c r="V18" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8634188771247864</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04877756163477898</v>
+        <v>0.000121201534057036</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9127380847930908</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4003974795341492</v>
       </c>
       <c r="W19" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.2624928951263428</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8755068778991699</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8820114731788635</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2097316235303879</v>
+        <v>4.230975901009515e-05</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8596181869506836</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5667903423309326</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2376763671636581</v>
+        <v>0.08574814349412918</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5362558364868164</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.4010306000709534</v>
       </c>
       <c r="W22" t="n">
-        <v>0.002168212784454226</v>
+        <v>0.01828586496412754</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5232980251312256</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5208083391189575</v>
       </c>
       <c r="W23" t="n">
-        <v>0.09651904553174973</v>
+        <v>6.19853653915925e-06</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5704472064971924</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8690401315689087</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002103089820593596</v>
+        <v>0.08915773779153824</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8750801682472229</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01258753426373005</v>
+        <v>0.119198352098465</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5187051296234131</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5232919454574585</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0967060923576355</v>
+        <v>2.103887891280465e-05</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142600536346436</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8784764409065247</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03184327110648155</v>
+        <v>0.1326535791158676</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5183601379394531</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5259361863136292</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002417127834632993</v>
+        <v>5.739650805480778e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.6102530956268311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.4009641706943512</v>
       </c>
       <c r="W29" t="n">
-        <v>0.009562931023538113</v>
+        <v>0.04380185529589653</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5426290035247803</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.4022769033908844</v>
       </c>
       <c r="W30" t="n">
-        <v>0.002326247049495578</v>
+        <v>0.01969871111214161</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5323190689086914</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.8740676641464233</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004691537003964186</v>
+        <v>0.1167921051383018</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.527468204498291</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4026202261447906</v>
       </c>
       <c r="W32" t="n">
-        <v>0.003992476966232061</v>
+        <v>0.01558701787143946</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5373749732971191</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.4004254043102264</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001130825490690768</v>
+        <v>0.01875518448650837</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5325329303741455</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.3998573422431946</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002975805662572384</v>
+        <v>0.01760281249880791</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.515254020690918</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.4000376462936401</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0006511090323328972</v>
+        <v>0.01327481307089329</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5134789943695068</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8773866295814514</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02647587656974792</v>
+        <v>0.132428765296936</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5142660140991211</v>
       </c>
       <c r="V37" t="n">
-        <v>0.975181519985199</v>
+        <v>0.3992097079753876</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2124430984258652</v>
+        <v>0.01323795318603516</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V38" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5238578319549561</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02082866057753563</v>
+        <v>4.996895950171165e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5109829902648926</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.8559142351150513</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01959117688238621</v>
+        <v>0.1189775615930557</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5651049613952637</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5276114344596863</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0204528383910656</v>
+        <v>0.001405764603987336</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5218288898468018</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8903443217277527</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0003520213067531586</v>
+        <v>0.1358036249876022</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3943610191345215</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5215680599212646</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1670834869146347</v>
+        <v>0.01618163101375103</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4247729778289795</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8727248907089233</v>
       </c>
       <c r="W43" t="n">
-        <v>0.07522808760404587</v>
+        <v>0.200660914182663</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3884561061859131</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.5203531980514526</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01859360747039318</v>
+        <v>0.0173968430608511</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3862631320953369</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.520668089389801</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09795670211315155</v>
+        <v>0.01806469261646271</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.435978889465332</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5260592103004456</v>
       </c>
       <c r="W46" t="n">
-        <v>0.007106054574251175</v>
+        <v>0.008114464581012726</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3998401165008545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.4009359180927277</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0004148303414694965</v>
+        <v>1.200781184707012e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3892931938171387</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5281462669372559</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01859783381223679</v>
+        <v>0.01928017660975456</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.400209903717041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4009512364864349</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03098244033753872</v>
+        <v>5.495742811945092e-07</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3860089778900146</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4022495746612549</v>
       </c>
       <c r="W50" t="n">
-        <v>0.2004497200250626</v>
+        <v>0.0002637569850776345</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.510633647441864</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0008642210159450769</v>
+        <v>0.01497160270810127</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4066839218139648</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.3992195129394531</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01395023986697197</v>
+        <v>5.57173989363946e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3861160278320312</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.4003617167472839</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001250060391612351</v>
+        <v>0.0002029396564466879</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3782820701599121</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8902373313903809</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0759735032916069</v>
+        <v>0.2620981931686401</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3865640163421631</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8644698262214661</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0009562619961798191</v>
+        <v>0.2283939570188522</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3872730731964111</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8697606921195984</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01388216204941273</v>
+        <v>0.2327942997217178</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3972070217132568</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.8669321537017822</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0006352553027682006</v>
+        <v>0.220641702413559</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3849449157714844</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5213445425033569</v>
       </c>
       <c r="W58" t="n">
-        <v>0.176082581281662</v>
+        <v>0.01860485784709454</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3890719413757324</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8819628357887268</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03501751646399498</v>
+        <v>0.2429414391517639</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3862390518188477</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.8755750060081482</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1750641316175461</v>
+        <v>0.239449679851532</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881721496582031</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.52769535779953</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1696547269821167</v>
+        <v>0.01946672610938549</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8955211639404297</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8668734431266785</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1638721525669098</v>
+        <v>0.0008206919301301241</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8631269931793213</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.3992056250572205</v>
       </c>
       <c r="W63" t="n">
-        <v>0.159439280629158</v>
+        <v>0.215223029255867</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688340187072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5235038995742798</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2035644799470901</v>
+        <v>0.1192528903484344</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8604331016540527</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.3992535173892975</v>
       </c>
       <c r="W65" t="n">
-        <v>0.02813706360757351</v>
+        <v>0.212686613202095</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8587489128112793</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5166374444961548</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1559385657310486</v>
+        <v>0.117040254175663</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8572161197662354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.4009618163108826</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1932381391525269</v>
+        <v>0.2081679850816727</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9626810550689697</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8651455044746399</v>
       </c>
       <c r="W68" t="n">
-        <v>0.0001667945325607434</v>
+        <v>0.009513183496892452</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8611769676208496</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3997706472873688</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2335854917764664</v>
+        <v>0.2128957957029343</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.862170934677124</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8982765674591064</v>
       </c>
       <c r="W70" t="n">
-        <v>0.04370604082942009</v>
+        <v>0.001303616678342223</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8902289867401123</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.3999553322792053</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1841259449720383</v>
+        <v>0.2403682619333267</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8750150203704834</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8776207566261292</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2736977338790894</v>
+        <v>6.789861345168902e-06</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.3991855680942535</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1144434958696365</v>
+        <v>0.2149346917867661</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8447420597076416</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8745483160018921</v>
       </c>
       <c r="W74" t="n">
-        <v>0.07209265232086182</v>
+        <v>0.0008884129347279668</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8534009456634521</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4003089964389801</v>
       </c>
       <c r="W75" t="n">
-        <v>0.002614209428429604</v>
+        <v>0.2052923142910004</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8705079555511475</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8823835253715515</v>
       </c>
       <c r="W76" t="n">
-        <v>0.08313894271850586</v>
+        <v>0.0001410291588399559</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8589661121368408</v>
       </c>
       <c r="V77" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.523133397102356</v>
       </c>
       <c r="W77" t="n">
-        <v>0.01363743934780359</v>
+        <v>0.1127836108207703</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8608081340789795</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5181660652160645</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1127868145704269</v>
+        <v>0.1174035891890526</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8817679882049561</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.4021756947040558</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05214115604758263</v>
+        <v>0.2300087660551071</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8577489852905273</v>
       </c>
       <c r="V80" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5288472175598145</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01379796117544174</v>
+        <v>0.1081763729453087</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8687119483947754</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5196853876113892</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1182926893234253</v>
+        <v>0.1218195408582687</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5876569747924805</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4006897211074829</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00684468587860465</v>
+        <v>0.03495675325393677</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5335731506347656</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5227827429771423</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01373293809592724</v>
+        <v>0.0001164329005405307</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5711660385131836</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4025598466396332</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01159380655735731</v>
+        <v>0.02842804789543152</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5159878730773926</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.3997526466846466</v>
       </c>
       <c r="W85" t="n">
-        <v>0.002715832786634564</v>
+        <v>0.01351062767207623</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5124921798706055</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.4003179669380188</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0001590200699865818</v>
+        <v>0.01258305367082357</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125231742858887</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.3991942703723907</v>
       </c>
       <c r="W87" t="n">
-        <v>0.006752165034413338</v>
+        <v>0.01284344028681517</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096480846405029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5250986218452454</v>
       </c>
       <c r="W88" t="n">
-        <v>0.004405120853334665</v>
+        <v>0.0002387191052548587</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149860382080078</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5207201242446899</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0269747581332922</v>
+        <v>3.28797432302963e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.553192138671875</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5187480449676514</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002310640178620815</v>
+        <v>0.001186395646072924</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5147140026092529</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8769216537475586</v>
       </c>
       <c r="W91" t="n">
-        <v>0.003794717835262418</v>
+        <v>0.1311943829059601</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5151410102844238</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8697251677513123</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02069828473031521</v>
+        <v>0.1257299184799194</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5155580043792725</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5140970349311829</v>
       </c>
       <c r="W93" t="n">
-        <v>0.2116172015666962</v>
+        <v>2.134431724698516e-06</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.511322021484375</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8868231177330017</v>
       </c>
       <c r="W94" t="n">
-        <v>4.614676799974404e-05</v>
+        <v>0.1410010755062103</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5636990070343018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5060691237449646</v>
       </c>
       <c r="W95" t="n">
-        <v>0.001505930442363024</v>
+        <v>0.003321203403174877</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.515470027923584</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8706561326980591</v>
       </c>
       <c r="W96" t="n">
-        <v>0.02713146060705185</v>
+        <v>0.1261571645736694</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5204191207885742</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5323054194450378</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02878786437213421</v>
+        <v>0.0001412840938428417</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5164110660552979</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8874613046646118</v>
       </c>
       <c r="W98" t="n">
-        <v>0.08132574707269669</v>
+        <v>0.1376782804727554</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5523090362548828</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5163578391075134</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01020639669150114</v>
+        <v>0.001292488537728786</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5100729465484619</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8700265884399414</v>
       </c>
       <c r="W100" t="n">
-        <v>0.216709777712822</v>
+        <v>0.1295666247606277</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5222830772399902</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8673561215400696</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01715832576155663</v>
+        <v>0.1190754026174545</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4022181034088135</v>
       </c>
       <c r="V102" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3999438285827637</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0002382468956056982</v>
+        <v>5.172325927560451e-06</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3961238861083984</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8763723969459534</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01655946113169193</v>
+        <v>0.2306386381387711</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3876838684082031</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.4003341495990753</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01381391473114491</v>
+        <v>0.0001600296091055498</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3888521194458008</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.866490364074707</v>
       </c>
       <c r="W105" t="n">
-        <v>0.03745869174599648</v>
+        <v>0.2281382977962494</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8649692535400391</v>
       </c>
       <c r="W106" t="n">
-        <v>0.02323495969176292</v>
+        <v>0.2273345738649368</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4411871433258057</v>
       </c>
       <c r="V107" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3997533023357391</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0005533835501410067</v>
+        <v>0.001716763130389154</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3865039348602295</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8636342287063599</v>
       </c>
       <c r="W108" t="n">
-        <v>0.005925676319748163</v>
+        <v>0.2276533246040344</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V109" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4000454246997833</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0107690142467618</v>
+        <v>0.0001819669996621087</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3853218555450439</v>
       </c>
       <c r="V110" t="n">
-        <v>0.653493344783783</v>
+        <v>0.3992202281951904</v>
       </c>
       <c r="W110" t="n">
-        <v>0.07191594690084457</v>
+        <v>0.0001931647566379979</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3883469104766846</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.400349885225296</v>
       </c>
       <c r="W111" t="n">
-        <v>0.07022114098072052</v>
+        <v>0.0001440713967895135</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.392676830291748</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8803528547286987</v>
       </c>
       <c r="W112" t="n">
-        <v>0.00468507269397378</v>
+        <v>0.2378279119729996</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4127299785614014</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8705832958221436</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03250581026077271</v>
+        <v>0.2096296548843384</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390765905380249</v>
       </c>
       <c r="V114" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8866607546806335</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3415760397911072</v>
+        <v>0.2459117025136948</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3889501094818115</v>
       </c>
       <c r="V115" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3998618423938751</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01356849167495966</v>
+        <v>0.0001190659168059938</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.388559103012085</v>
       </c>
       <c r="V116" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5311055779457092</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01045998930931091</v>
+        <v>0.0203194972127676</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897700309753418</v>
       </c>
       <c r="V117" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5204158425331116</v>
       </c>
       <c r="W117" t="n">
-        <v>0.170225664973259</v>
+        <v>0.01706832833588123</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4111719131469727</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.3999505937099457</v>
       </c>
       <c r="W118" t="n">
-        <v>0.05934479832649231</v>
+        <v>0.0001259180135093629</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3885760307312012</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8746429085731506</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03950666263699532</v>
+        <v>0.2362610101699829</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4004120826721191</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.3992873728275299</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01095915026962757</v>
+        <v>1.264972183889768e-06</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3879258632659912</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.3999541699886322</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01049897912889719</v>
+        <v>0.000144680161611177</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671731948852539</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5211849212646484</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2667012512683868</v>
+        <v>0.1197078824043274</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9329860210418701</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.532170832157135</v>
       </c>
       <c r="W123" t="n">
-        <v>0.195498988032341</v>
+        <v>0.1606528162956238</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9328370094299316</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8745365142822266</v>
       </c>
       <c r="W124" t="n">
-        <v>0.3072013258934021</v>
+        <v>0.003398947650566697</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8684320449829102</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8660157322883606</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2031905204057693</v>
+        <v>5.838567176397191e-06</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8656630516052246</v>
       </c>
       <c r="V126" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4004242122173309</v>
       </c>
       <c r="W126" t="n">
-        <v>0.01208161283284426</v>
+        <v>0.2164471745491028</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8604040145874023</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5078679919242859</v>
       </c>
       <c r="W127" t="n">
-        <v>0.02597984485328197</v>
+        <v>0.124281644821167</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9113059043884277</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.400058925151825</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1655242443084717</v>
+        <v>0.2613734602928162</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8533439636230469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8777856230735779</v>
       </c>
       <c r="W129" t="n">
-        <v>0.06901665776968002</v>
+        <v>0.0005973947118036449</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8740639686584473</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5239853858947754</v>
       </c>
       <c r="W130" t="n">
-        <v>0.147182896733284</v>
+        <v>0.1225550174713135</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8608500957489014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.40106201171875</v>
       </c>
       <c r="W131" t="n">
-        <v>0.02473130822181702</v>
+        <v>0.2114050835371017</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9182729721069336</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5228843092918396</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2982701659202576</v>
+        <v>0.1563321948051453</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8799760341644287</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3992353975772858</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2516306936740875</v>
+        <v>0.2311115562915802</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8519749641418457</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8747750520706177</v>
       </c>
       <c r="W134" t="n">
-        <v>0.07608306407928467</v>
+        <v>0.0005198440048843622</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8819501399993896</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5148366093635559</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1420090049505234</v>
+        <v>0.1347723454236984</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9134500026702881</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.4003493785858154</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2744601368904114</v>
+        <v>0.2632722556591034</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8670570850372314</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.4010452032089233</v>
       </c>
       <c r="W137" t="n">
-        <v>0.07838032394647598</v>
+        <v>0.2171670794487</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8597350120544434</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8821535706520081</v>
       </c>
       <c r="W138" t="n">
-        <v>0.04274178296327591</v>
+        <v>0.0005025917780585587</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8647799491882324</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.3992176651954651</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04541273415088654</v>
+        <v>0.2167482376098633</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9140892028808594</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8694177269935608</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1979217827320099</v>
+        <v>0.001995540689677</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8625450134277344</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5227943658828735</v>
       </c>
       <c r="W141" t="n">
-        <v>0.02667395025491714</v>
+        <v>0.1154305040836334</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5616960525512695</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.4003481864929199</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03600414097309113</v>
+        <v>0.02603313326835632</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5180881023406982</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8776765465736389</v>
       </c>
       <c r="W143" t="n">
-        <v>4.190210529486649e-05</v>
+        <v>0.1293038427829742</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5174250602722168</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8664721250534058</v>
       </c>
       <c r="W144" t="n">
-        <v>5.421671812655404e-05</v>
+        <v>0.1218338534235954</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5671308040618896</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3998490869998932</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0002367450506426394</v>
+        <v>0.0279831737279892</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5147268772125244</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.887351930141449</v>
       </c>
       <c r="W146" t="n">
-        <v>0.009428529068827629</v>
+        <v>0.1388494372367859</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3993125855922699</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0309924092143774</v>
+        <v>0.01625660620629787</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5184540748596191</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.868752658367157</v>
       </c>
       <c r="W148" t="n">
-        <v>0.1015622168779373</v>
+        <v>0.1227090954780579</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5170118808746338</v>
       </c>
       <c r="V149" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5278446674346924</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02764308266341686</v>
+        <v>0.0001173492637462914</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5172688961029053</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8710057735443115</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02771989814937115</v>
+        <v>0.1251297742128372</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5147850513458252</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8809860944747925</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0005988510092720389</v>
+        <v>0.1341032087802887</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5102519989013672</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5284712910652161</v>
       </c>
       <c r="W152" t="n">
-        <v>0.004349234513938427</v>
+        <v>0.0003319426032248884</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8686822056770325</v>
       </c>
       <c r="W153" t="n">
-        <v>0.1017315685749054</v>
+        <v>0.1249269843101501</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5149040222167969</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8735316395759583</v>
       </c>
       <c r="W154" t="n">
-        <v>0.2122658342123032</v>
+        <v>0.1286137700080872</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5177440643310547</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8642526268959045</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02788686938583851</v>
+        <v>0.120068185031414</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5733518600463867</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4009610116481781</v>
       </c>
       <c r="W156" t="n">
-        <v>0.006427578628063202</v>
+        <v>0.02971860393881798</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.517146110534668</v>
       </c>
       <c r="V157" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5181794166564941</v>
       </c>
       <c r="W157" t="n">
-        <v>0.03315556794404984</v>
+        <v>1.067721541403444e-06</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5657531023025513</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01054203789681196</v>
+        <v>0.002064713975414634</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5063948631286621</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8785097002983093</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01639481075108051</v>
+        <v>0.1384694576263428</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5173289775848389</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8783106207847595</v>
       </c>
       <c r="W160" t="n">
-        <v>0.08061736077070236</v>
+        <v>0.130307748913765</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5147650241851807</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.3992297351360321</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0006221172516234219</v>
+        <v>0.01334840338677168</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3929789066314697</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4009545147418976</v>
       </c>
       <c r="W162" t="n">
-        <v>0.00958463829010725</v>
+        <v>6.361032137647271e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3891658782958984</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5067285895347595</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01031406968832016</v>
+        <v>0.01382099092006683</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.385962963104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5181348323822021</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01400308962911367</v>
+        <v>0.01746940240263939</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3929691314697266</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.5229068994522095</v>
       </c>
       <c r="W165" t="n">
-        <v>0.338983952999115</v>
+        <v>0.01688382402062416</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.389599084854126</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5222063064575195</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06893701106309891</v>
+        <v>0.01758467592298985</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3901979923248291</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5454603433609009</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1701765358448029</v>
+        <v>0.02410639822483063</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4414951801300049</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8820853233337402</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0004013008729089051</v>
+        <v>0.1941196769475937</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3884539604187012</v>
       </c>
       <c r="V169" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8724812269210815</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01329836528748274</v>
+        <v>0.2342823892831802</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3920168876647949</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.4003320932388306</v>
       </c>
       <c r="W170" t="n">
-        <v>0.03395678102970123</v>
+        <v>6.914264668012038e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.400031715631485</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001427813898772001</v>
+        <v>0.0001080700749298558</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3904209136962891</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.401022344827652</v>
       </c>
       <c r="W172" t="n">
-        <v>0.00157095945905894</v>
+        <v>0.0001123903421103023</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3872849941253662</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.3997744917869568</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01072814967483282</v>
+        <v>0.0001559875527163967</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4283440113067627</v>
       </c>
       <c r="V174" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8768636584281921</v>
       </c>
       <c r="W174" t="n">
-        <v>0.003199473023414612</v>
+        <v>0.2011698782444</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3907978534698486</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5620740652084351</v>
       </c>
       <c r="W175" t="n">
-        <v>0.3425288796424866</v>
+        <v>0.02933553978800774</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927590847015381</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5204755663871765</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01243220269680023</v>
+        <v>0.01631150022149086</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4013140201568604</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.868373692035675</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0002636417921166867</v>
+        <v>0.2181447297334671</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8873974084854126</v>
       </c>
       <c r="W178" t="n">
-        <v>0.004671907983720303</v>
+        <v>0.2423232942819595</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4187941551208496</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3992271721363068</v>
       </c>
       <c r="W179" t="n">
-        <v>0.05522738769650459</v>
+        <v>0.000382866826839745</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3924510478973389</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8775854706764221</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1950578093528748</v>
+        <v>0.235355406999588</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4055678844451904</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8701037764549255</v>
       </c>
       <c r="W181" t="n">
-        <v>0.001120149507187307</v>
+        <v>0.2157935947179794</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8647129535675049</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5260086059570312</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1999396979808807</v>
+        <v>0.1147206351161003</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9081459045410156</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3992095291614532</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1105701476335526</v>
+        <v>0.2590162754058838</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8820559978485107</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5191006064414978</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1768992990255356</v>
+        <v>0.131736621260643</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.928225040435791</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8679903149604797</v>
       </c>
       <c r="W185" t="n">
-        <v>0.07544276118278503</v>
+        <v>0.003628222038969398</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8666789531707764</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.4003373980522156</v>
       </c>
       <c r="W186" t="n">
-        <v>0.003930733539164066</v>
+        <v>0.2174744457006454</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8676369190216064</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5235821008682251</v>
       </c>
       <c r="W187" t="n">
-        <v>0.00395757332444191</v>
+        <v>0.1183737143874168</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.866962194442749</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8732029795646667</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1415051370859146</v>
+        <v>3.894740075338632e-05</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9142131805419922</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5268466472625732</v>
       </c>
       <c r="W189" t="n">
-        <v>0.3175010085105896</v>
+        <v>0.1500528305768967</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8514430522918701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5155553221702576</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2298549115657806</v>
+        <v>0.112820565700531</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8759050369262695</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8842800855636597</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1717225015163422</v>
+        <v>7.014143920969218e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8611991405487061</v>
       </c>
       <c r="V192" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5180149078369141</v>
       </c>
       <c r="W192" t="n">
-        <v>0.01307112909853458</v>
+        <v>0.1177754178643227</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9125330448150635</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.8612764477729797</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1663311421871185</v>
+        <v>0.002627238631248474</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8510849475860596</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.3992262780666351</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1879613697528839</v>
+        <v>0.2041762620210648</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8673090934753418</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8858754634857178</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2660414576530457</v>
+        <v>0.000344710104400292</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.857590913772583</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4010256826877594</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1105032116174698</v>
+        <v>0.2084518074989319</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9213190078735352</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8671017289161682</v>
       </c>
       <c r="W197" t="n">
-        <v>0.01418531499803066</v>
+        <v>0.002939513418823481</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8710238933563232</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8660836815834045</v>
       </c>
       <c r="W198" t="n">
-        <v>0.04680018872022629</v>
+        <v>2.440569187456276e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8738658428192139</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8742873072624207</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2736427485942841</v>
+        <v>1.776322733348934e-07</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8592610359191895</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8656247854232788</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2623739242553711</v>
+        <v>4.049730705446564e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9118239879608154</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5228004455566406</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1651419401168823</v>
+        <v>0.1513393223285675</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5207359790802002</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4004194736480713</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01746253482997417</v>
+        <v>0.01447606179863214</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5160939693450928</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.5230591297149658</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01910623908042908</v>
+        <v>4.851345875067636e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5255649089813232</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5668808221817017</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01164347026497126</v>
+        <v>0.001707004732452333</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5180530548095703</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8742804527282715</v>
       </c>
       <c r="W205" t="n">
-        <v>0.07974232733249664</v>
+        <v>0.1268979609012604</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5711450576782227</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8740645051002502</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03970285877585411</v>
+        <v>0.09176018834114075</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5177149772644043</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.5209587812423706</v>
       </c>
       <c r="W207" t="n">
-        <v>0.00016117247287184</v>
+        <v>1.052226434694603e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.516556978225708</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3992202281951904</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01885402761399746</v>
+        <v>0.01376791298389435</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5095701217651367</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.4003233015537262</v>
       </c>
       <c r="W209" t="n">
-        <v>0.008453394286334515</v>
+        <v>0.01193486806005239</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5178558826446533</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.400395929813385</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01829392462968826</v>
+        <v>0.01379684079438448</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5198121070861816</v>
       </c>
       <c r="V211" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5234054923057556</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0008354699821211398</v>
+        <v>1.291241733269999e-05</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5202188491821289</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.3992304801940918</v>
       </c>
       <c r="W212" t="n">
-        <v>0.003845372004434466</v>
+        <v>0.01463818550109863</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.519014835357666</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8831278681755066</v>
       </c>
       <c r="W213" t="n">
-        <v>0.09926837682723999</v>
+        <v>0.1325782984495163</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5110161304473877</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.8747767806053162</v>
       </c>
       <c r="W214" t="n">
-        <v>0.002457199152559042</v>
+        <v>0.1323218047618866</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5210390090942383</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5229647755622864</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01069110259413719</v>
+        <v>3.708576514327433e-06</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5213079452514648</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4025022983551025</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02942299284040928</v>
+        <v>0.01411478128284216</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5739490985870361</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5217324495315552</v>
       </c>
       <c r="W217" t="n">
-        <v>0.05240640416741371</v>
+        <v>0.002726578386500478</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5124390125274658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.4003542065620422</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01990125142037868</v>
+        <v>0.01256300415843725</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5183022022247314</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8853476047515869</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02782484143972397</v>
+        <v>0.1347223222255707</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5118379592895508</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5267542004585266</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02003395743668079</v>
+        <v>0.0002224942436441779</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5178840160369873</v>
       </c>
       <c r="V221" t="n">
-        <v>0.838257908821106</v>
+        <v>0.5260101556777954</v>
       </c>
       <c r="W221" t="n">
-        <v>0.1026394292712212</v>
+        <v>6.603414658457041e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3881731033325195</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5254442095756531</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01056276354938745</v>
+        <v>0.01884335651993752</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3896100521087646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5089513063430786</v>
       </c>
       <c r="W223" t="n">
-        <v>0.1014209017157555</v>
+        <v>0.0142423352226615</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3896338939666748</v>
       </c>
       <c r="V224" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5209450721740723</v>
       </c>
       <c r="W224" t="n">
-        <v>0.1014060229063034</v>
+        <v>0.01724262535572052</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3891198635101318</v>
       </c>
       <c r="V225" t="n">
-        <v>0.802345335483551</v>
+        <v>0.4000460207462311</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1707552969455719</v>
+        <v>0.0001193809148389846</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3885128498077393</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3992289006710052</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01039967127144337</v>
+        <v>0.0001148337469203398</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3948509693145752</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5134009122848511</v>
       </c>
       <c r="W227" t="n">
-        <v>0.00026184186572209</v>
+        <v>0.01405408885329962</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3942828178405762</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8931999802589417</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1970511227846146</v>
+        <v>0.2489183396100998</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4447550773620605</v>
       </c>
       <c r="V229" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5181238651275635</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06699226796627045</v>
+        <v>0.005382978823035955</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3939578533172607</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.4993132054805756</v>
       </c>
       <c r="W230" t="n">
-        <v>0.06775514781475067</v>
+        <v>0.01109975017607212</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.394899845123291</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.400407612323761</v>
       </c>
       <c r="W231" t="n">
-        <v>0.03524074703454971</v>
+        <v>3.033549910469446e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3950669765472412</v>
       </c>
       <c r="V232" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5109035968780518</v>
       </c>
       <c r="W232" t="n">
-        <v>0.009082763455808163</v>
+        <v>0.01341812219470739</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4166078567504883</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.527377188205719</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05618442222476006</v>
+        <v>0.01226984523236752</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3936431407928467</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8731254935264587</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06794615089893341</v>
+        <v>0.2299033254384995</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4413671493530273</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.886554479598999</v>
       </c>
       <c r="W235" t="n">
-        <v>0.00821121409535408</v>
+        <v>0.19819176197052</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4010059833526611</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4003884494304657</v>
       </c>
       <c r="W236" t="n">
-        <v>0.003946002572774887</v>
+        <v>3.813481441738986e-07</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923790454864502</v>
       </c>
       <c r="V237" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.522967517375946</v>
       </c>
       <c r="W237" t="n">
-        <v>0.3403032124042511</v>
+        <v>0.01705334894359112</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3835799694061279</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5061715245246887</v>
       </c>
       <c r="W238" t="n">
-        <v>0.02037801221013069</v>
+        <v>0.0150286890566349</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3897740840911865</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.4001613855361938</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0007712298538535833</v>
+        <v>0.0001078960340237245</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3865330219268799</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.3992185294628143</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0009671064908616245</v>
+        <v>0.0001609221071703359</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3851449489593506</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8621177673339844</v>
       </c>
       <c r="W241" t="n">
-        <v>0.006186384707689285</v>
+        <v>0.2275030761957169</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9108250141143799</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.870445728302002</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1872260272502899</v>
+        <v>0.001630486687645316</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8838629722595215</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4009366929531097</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1290836036205292</v>
+        <v>0.233217790722847</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8828079700469971</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.400044322013855</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2544735074043274</v>
+        <v>0.2330607324838638</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8803999423980713</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.4022766351699829</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05191837623715401</v>
+        <v>0.2286019027233124</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8663985133171082</v>
       </c>
       <c r="W246" t="n">
-        <v>0.004031317308545113</v>
+        <v>7.734614086984948e-07</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8805139064788818</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.3992482721805573</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1419049501419067</v>
+        <v>0.2316166162490845</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8545551300048828</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.4025261402130127</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2574891448020935</v>
+        <v>0.2043302059173584</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8742661476135254</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8886159062385559</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2525346279144287</v>
+        <v>0.0002059155667666346</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8637797832489014</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8760718107223511</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1142271980643272</v>
+        <v>0.0001510939327999949</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8871269226074219</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.5181950926780701</v>
       </c>
       <c r="W251" t="n">
-        <v>0.258289098739624</v>
+        <v>0.1361106932163239</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8672189712524414</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8906645178794861</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1322123408317566</v>
+        <v>0.0005496936501003802</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8709719181060791</v>
       </c>
       <c r="V253" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8730294108390808</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2055166065692902</v>
+        <v>4.233276285958709e-06</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V254" t="n">
-        <v>0.800457239151001</v>
+        <v>0.523358166217804</v>
       </c>
       <c r="W254" t="n">
-        <v>0.004632153082638979</v>
+        <v>0.1191347315907478</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8794350624084473</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5082172155380249</v>
       </c>
       <c r="W255" t="n">
-        <v>0.03487097471952438</v>
+        <v>0.1378026902675629</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8668630123138428</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5160415172576904</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1643045097589493</v>
+        <v>0.1230757236480713</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9045901298522949</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.3992246985435486</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1715386807918549</v>
+        <v>0.2553942203521729</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.866131067276001</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5207331776618958</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1303432434797287</v>
+        <v>0.1192997023463249</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818769454956055</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5269604921340942</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2154972106218338</v>
+        <v>0.1259656846523285</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8656539916992188</v>
       </c>
       <c r="V260" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.400181382894516</v>
       </c>
       <c r="W260" t="n">
-        <v>0.01208149455487728</v>
+        <v>0.2166647464036942</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851230144500732</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5177673101425171</v>
       </c>
       <c r="W261" t="n">
-        <v>0.09554419666528702</v>
+        <v>0.1349502205848694</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5272119045257568</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8669034242630005</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0295916460454464</v>
+        <v>0.1153903305530548</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5252559185028076</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.872296929359436</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01652847230434418</v>
+        <v>0.12043746560812</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213489532470703</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5233471393585205</v>
       </c>
       <c r="W264" t="n">
-        <v>0.1006746143102646</v>
+        <v>3.992747679149034e-06</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.50962233543396</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0001270408101845533</v>
+        <v>2.375346412009094e-05</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5213770866394043</v>
       </c>
       <c r="V266" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5266456007957458</v>
       </c>
       <c r="W266" t="n">
-        <v>0.07790829241275787</v>
+        <v>2.775724169623572e-05</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5508368015289307</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5169430375099182</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0006983028724789619</v>
+        <v>0.001148787210695446</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5195109844207764</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8856935501098633</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0008257128647528589</v>
+        <v>0.1340896785259247</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5150058269500732</v>
       </c>
       <c r="V269" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5239989161491394</v>
       </c>
       <c r="W269" t="n">
-        <v>0.08388584852218628</v>
+        <v>8.087565220193937e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5207350254058838</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8751630783081055</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02214577235281467</v>
+        <v>0.1256192475557327</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521867036819458</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8795400857925415</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0108645111322403</v>
+        <v>0.1279300153255463</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6043839454650879</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3992365896701813</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01294436771422625</v>
+        <v>0.0420854389667511</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5248839855194092</v>
       </c>
       <c r="V273" t="n">
-        <v>0.801636278629303</v>
+        <v>0.4021481275558472</v>
       </c>
       <c r="W273" t="n">
-        <v>0.07659183442592621</v>
+        <v>0.01506409049034119</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.544395923614502</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5320213437080383</v>
       </c>
       <c r="W274" t="n">
-        <v>0.03895270079374313</v>
+        <v>0.000153130225953646</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5220539569854736</v>
       </c>
       <c r="V275" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8866142630577087</v>
       </c>
       <c r="W275" t="n">
-        <v>0.03466638550162315</v>
+        <v>0.1329042166471481</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5163829326629639</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8701855540275574</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01908275671303272</v>
+        <v>0.1251762956380844</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5244660377502441</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.3992418646812439</v>
       </c>
       <c r="W277" t="n">
-        <v>0.02619385160505772</v>
+        <v>0.01568109355866909</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5222740173339844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.400030642747879</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01718932017683983</v>
+        <v>0.01494344230741262</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5194718837738037</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4021139144897461</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0002220872411271557</v>
+        <v>0.01377289276570082</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5226271152496338</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8584820628166199</v>
       </c>
       <c r="W280" t="n">
-        <v>0.07717235386371613</v>
+        <v>0.1127985492348671</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191450119018555</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.4003630876541138</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0002029617317020893</v>
+        <v>0.01410914584994316</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5194406509399414</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0002234697458334267</v>
+        <v>0.01338500156998634</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3965978622436523</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.402187168598175</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1631106734275818</v>
+        <v>3.124034628854133e-05</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V284" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8931851387023926</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1671824604272842</v>
+        <v>0.2496472597122192</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3990819454193115</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.3992009460926056</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06489437818527222</v>
+        <v>1.416116024444136e-08</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3928329944610596</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4022586643695831</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0006159954355098307</v>
+        <v>8.884325507096946e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3912510871887207</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5175243020057678</v>
       </c>
       <c r="W287" t="n">
-        <v>0.03420943394303322</v>
+        <v>0.01594492420554161</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.404757022857666</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5264139771461487</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0001662284630583599</v>
+        <v>0.01480041444301605</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4088938236236572</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5152207612991333</v>
       </c>
       <c r="W289" t="n">
-        <v>0.08429154008626938</v>
+        <v>0.01130541786551476</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3934800624847412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8665766716003418</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0005775798344984651</v>
+        <v>0.2238204032182693</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3988280296325684</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5307287573814392</v>
       </c>
       <c r="W291" t="n">
-        <v>0.003923043143004179</v>
+        <v>0.01739780232310295</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.415463924407959</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5108962655067444</v>
       </c>
       <c r="W292" t="n">
-        <v>0.005608470179140568</v>
+        <v>0.009107331745326519</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.396190881729126</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.87530916929245</v>
       </c>
       <c r="W293" t="n">
-        <v>0.03790177777409554</v>
+        <v>0.2295543402433395</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3955419063568115</v>
       </c>
       <c r="V294" t="n">
-        <v>0.97564297914505</v>
+        <v>0.529855489730835</v>
       </c>
       <c r="W294" t="n">
-        <v>0.3365172445774078</v>
+        <v>0.01804013922810555</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3936030864715576</v>
       </c>
       <c r="V295" t="n">
-        <v>0.652911365032196</v>
+        <v>0.3992149531841278</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06724078208208084</v>
+        <v>3.149304757243954e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4444561004638672</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8738476037979126</v>
       </c>
       <c r="W296" t="n">
-        <v>0.006388186942785978</v>
+        <v>0.184377059340477</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3945729732513428</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3997464776039124</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0005316492752172053</v>
+        <v>2.676514668564778e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3963210582733154</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.3998642563819885</v>
       </c>
       <c r="W298" t="n">
-        <v>0.08407699316740036</v>
+        <v>1.25542528621736e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3969969749450684</v>
       </c>
       <c r="V299" t="n">
-        <v>0.35074183344841</v>
+        <v>0.3992380201816559</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002139538060873747</v>
+        <v>5.022283858124865e-06</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3968369960784912</v>
       </c>
       <c r="V300" t="n">
-        <v>0.576347291469574</v>
+        <v>0.4022736251354218</v>
       </c>
       <c r="W300" t="n">
-        <v>0.03222394734621048</v>
+        <v>2.955693526018877e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4005329608917236</v>
       </c>
       <c r="V301" t="n">
-        <v>0.417630136013031</v>
+        <v>0.3992425501346588</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0002923134015873075</v>
+        <v>1.665159970798413e-06</v>
       </c>
     </row>
     <row r="302" spans="1:23">
